--- a/data/teams_stats.xlsx
+++ b/data/teams_stats.xlsx
@@ -16,91 +16,91 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4429" uniqueCount="1206">
   <si>
-    <t>Season</t>
-  </si>
-  <si>
-    <t>Squad</t>
-  </si>
-  <si>
-    <t># Pl</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Poss</t>
-  </si>
-  <si>
-    <t>Gls</t>
-  </si>
-  <si>
-    <t>Ast</t>
-  </si>
-  <si>
-    <t>G+A</t>
-  </si>
-  <si>
-    <t>G-PK</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>PKatt</t>
-  </si>
-  <si>
-    <t>CrdY</t>
-  </si>
-  <si>
-    <t>CrdR</t>
-  </si>
-  <si>
-    <t>Gls_2</t>
-  </si>
-  <si>
-    <t>Ast_2</t>
-  </si>
-  <si>
-    <t>G+A_2</t>
-  </si>
-  <si>
-    <t>G-PK_2</t>
-  </si>
-  <si>
-    <t>G+A-PK</t>
-  </si>
-  <si>
-    <t>xG</t>
-  </si>
-  <si>
-    <t>npxG</t>
-  </si>
-  <si>
-    <t>xAG</t>
-  </si>
-  <si>
-    <t>npxG+xAG</t>
-  </si>
-  <si>
-    <t>PrgC</t>
-  </si>
-  <si>
-    <t>PrgP</t>
-  </si>
-  <si>
-    <t>xG_2</t>
-  </si>
-  <si>
-    <t>xAG_2</t>
-  </si>
-  <si>
-    <t>xG+xAG</t>
-  </si>
-  <si>
-    <t>npxG_2</t>
-  </si>
-  <si>
-    <t>npxG+xAG_2</t>
+    <t>season</t>
+  </si>
+  <si>
+    <t>squad</t>
+  </si>
+  <si>
+    <t>num_players_team</t>
+  </si>
+  <si>
+    <t>avg_age_team</t>
+  </si>
+  <si>
+    <t>poss_team</t>
+  </si>
+  <si>
+    <t>gls_team</t>
+  </si>
+  <si>
+    <t>ast_team</t>
+  </si>
+  <si>
+    <t>g+a_team</t>
+  </si>
+  <si>
+    <t>g-pk_team</t>
+  </si>
+  <si>
+    <t>pk_team</t>
+  </si>
+  <si>
+    <t>pkatt_team</t>
+  </si>
+  <si>
+    <t>crdy_team</t>
+  </si>
+  <si>
+    <t>crdr_team</t>
+  </si>
+  <si>
+    <t>gls_90minutes_team</t>
+  </si>
+  <si>
+    <t>ast_90minutes_team</t>
+  </si>
+  <si>
+    <t>g+a_90minutes_team</t>
+  </si>
+  <si>
+    <t>g-pk_90minutes_team</t>
+  </si>
+  <si>
+    <t>g+a-pk_team</t>
+  </si>
+  <si>
+    <t>xg_team</t>
+  </si>
+  <si>
+    <t>npxg_team</t>
+  </si>
+  <si>
+    <t>xag_team</t>
+  </si>
+  <si>
+    <t>npxg+xag_team</t>
+  </si>
+  <si>
+    <t>prgc_team</t>
+  </si>
+  <si>
+    <t>prgp_team</t>
+  </si>
+  <si>
+    <t>xg_90minutes_team</t>
+  </si>
+  <si>
+    <t>xag_90minutes_team</t>
+  </si>
+  <si>
+    <t>xg+xag_team</t>
+  </si>
+  <si>
+    <t>npxg_90minutes_team</t>
+  </si>
+  <si>
+    <t>npxg+xag_90minutes_team</t>
   </si>
   <si>
     <t>2016-2017</t>
